--- a/Plantillas/plantilla_socios.xlsx
+++ b/Plantillas/plantilla_socios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosSistemasWeb\sctock_camu\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sctock_camu\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE68870-DD8D-439D-B40F-DEB412311A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41762A60-BB7E-4B4E-A4F3-1A7E5A955306}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="280">
   <si>
     <t>codigo</t>
   </si>
@@ -665,6 +665,201 @@
   </si>
   <si>
     <t>Bellavista</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>05324993</t>
+  </si>
+  <si>
+    <t>00053693</t>
+  </si>
+  <si>
+    <t>00112285</t>
+  </si>
+  <si>
+    <t>00123625</t>
+  </si>
+  <si>
+    <t>00993842</t>
+  </si>
+  <si>
+    <t>44883649</t>
+  </si>
+  <si>
+    <t>00055873</t>
+  </si>
+  <si>
+    <t>47421131</t>
+  </si>
+  <si>
+    <t>00054835</t>
+  </si>
+  <si>
+    <t>22497505</t>
+  </si>
+  <si>
+    <t>05929133</t>
+  </si>
+  <si>
+    <t>73032580</t>
+  </si>
+  <si>
+    <t>40855197</t>
+  </si>
+  <si>
+    <t>00104978</t>
+  </si>
+  <si>
+    <t>42810361</t>
+  </si>
+  <si>
+    <t>00069328</t>
+  </si>
+  <si>
+    <t>63411986</t>
+  </si>
+  <si>
+    <t>80154540</t>
+  </si>
+  <si>
+    <t>76980203</t>
+  </si>
+  <si>
+    <t>00114094</t>
+  </si>
+  <si>
+    <t>00873837</t>
+  </si>
+  <si>
+    <t>20569839</t>
+  </si>
+  <si>
+    <t>00977712</t>
+  </si>
+  <si>
+    <t>01120316</t>
+  </si>
+  <si>
+    <t>00052756</t>
+  </si>
+  <si>
+    <t>01029065</t>
+  </si>
+  <si>
+    <t>00080699</t>
+  </si>
+  <si>
+    <t>00111876</t>
+  </si>
+  <si>
+    <t>00066536</t>
+  </si>
+  <si>
+    <t>80135439</t>
+  </si>
+  <si>
+    <t>00102001</t>
+  </si>
+  <si>
+    <t>70417646</t>
+  </si>
+  <si>
+    <t>00113849</t>
+  </si>
+  <si>
+    <t>00098293</t>
+  </si>
+  <si>
+    <t>00007065</t>
+  </si>
+  <si>
+    <t>47856122</t>
+  </si>
+  <si>
+    <t>48078894</t>
+  </si>
+  <si>
+    <t>00040977</t>
+  </si>
+  <si>
+    <t>00872175</t>
+  </si>
+  <si>
+    <t>46048202</t>
+  </si>
+  <si>
+    <t>45512136</t>
+  </si>
+  <si>
+    <t>42178784</t>
+  </si>
+  <si>
+    <t>00115751</t>
+  </si>
+  <si>
+    <t>00075327</t>
+  </si>
+  <si>
+    <t>21145879</t>
+  </si>
+  <si>
+    <t>00105173</t>
+  </si>
+  <si>
+    <t>00963315</t>
+  </si>
+  <si>
+    <t>00053749</t>
+  </si>
+  <si>
+    <t>44627455</t>
+  </si>
+  <si>
+    <t>00039950</t>
+  </si>
+  <si>
+    <t>48428486</t>
+  </si>
+  <si>
+    <t>00066159</t>
+  </si>
+  <si>
+    <t>42190456</t>
+  </si>
+  <si>
+    <t>00029908</t>
+  </si>
+  <si>
+    <t>05867704</t>
+  </si>
+  <si>
+    <t>80686553</t>
+  </si>
+  <si>
+    <t>33673537</t>
+  </si>
+  <si>
+    <t>00052205</t>
+  </si>
+  <si>
+    <t>80216252</t>
+  </si>
+  <si>
+    <t>00061208</t>
+  </si>
+  <si>
+    <t>00075961</t>
+  </si>
+  <si>
+    <t>43398267</t>
+  </si>
+  <si>
+    <t>00023890</t>
+  </si>
+  <si>
+    <t>00093492</t>
   </si>
 </sst>
 </file>
@@ -731,12 +926,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,22 +1240,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I68"/>
+      <selection activeCell="J1" sqref="J1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="3" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1084,7 +1286,9 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>76</v>
       </c>
@@ -1098,14 +1302,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <v>962510466</v>
+      </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>77</v>
       </c>
@@ -1119,14 +1327,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>926123431</v>
+      </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>78</v>
       </c>
@@ -1140,14 +1352,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>965951244</v>
+      </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>79</v>
       </c>
@@ -1161,14 +1377,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>961684825</v>
+      </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>220</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>80</v>
       </c>
@@ -1182,14 +1402,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>940562158</v>
+      </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="4" t="s">
+        <v>221</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>81</v>
       </c>
@@ -1203,14 +1427,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>918032803</v>
+      </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>82</v>
       </c>
@@ -1224,14 +1452,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>957203678</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>83</v>
       </c>
@@ -1245,14 +1477,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>926232863</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="4" t="s">
+        <v>224</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>84</v>
       </c>
@@ -1266,14 +1502,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>990530389</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>85</v>
       </c>
@@ -1287,14 +1527,18 @@
         <v>1</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>985540969</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>86</v>
       </c>
@@ -1308,14 +1552,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>991225722</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>87</v>
       </c>
@@ -1329,14 +1577,18 @@
         <v>1</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>971497918</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>88</v>
       </c>
@@ -1350,14 +1602,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>98388806</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="C15" s="2" t="s">
         <v>89</v>
       </c>
@@ -1371,14 +1627,18 @@
         <v>1</v>
       </c>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>973120960</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>81</v>
       </c>
@@ -1392,14 +1652,18 @@
         <v>1</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>916704578</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>90</v>
       </c>
@@ -1413,14 +1677,18 @@
         <v>1</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>961520116</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>91</v>
       </c>
@@ -1434,14 +1702,18 @@
         <v>1</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>942531137</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="4" t="s">
+        <v>232</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>92</v>
       </c>
@@ -1455,14 +1727,18 @@
         <v>1</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>927520853</v>
+      </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>93</v>
       </c>
@@ -1476,14 +1752,18 @@
         <v>1</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2">
+        <v>916706495</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>94</v>
       </c>
@@ -1497,14 +1777,18 @@
         <v>1</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <v>921127326</v>
+      </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>95</v>
       </c>
@@ -1518,14 +1802,18 @@
         <v>1</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="2">
+        <v>926209907</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>96</v>
       </c>
@@ -1539,14 +1827,18 @@
         <v>1</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="2">
+        <v>912797680</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>97</v>
       </c>
@@ -1560,14 +1852,18 @@
         <v>1</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="2">
+        <v>961554273</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>98</v>
       </c>
@@ -1581,14 +1877,18 @@
         <v>1</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="H25" s="2">
+        <v>939865044</v>
+      </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="4" t="s">
+        <v>239</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>99</v>
       </c>
@@ -1602,14 +1902,18 @@
         <v>1</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>961946497</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>100</v>
       </c>
@@ -1623,14 +1927,18 @@
         <v>1</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="H27" s="2">
+        <v>988725222</v>
+      </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="2"/>
+      <c r="B28" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>101</v>
       </c>
@@ -1644,14 +1952,18 @@
         <v>1</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="H28" s="2">
+        <v>955399143</v>
+      </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="4" t="s">
+        <v>242</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>102</v>
       </c>
@@ -1665,14 +1977,18 @@
         <v>1</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H29" s="2">
+        <v>947679188</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="2"/>
+      <c r="B30" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>103</v>
       </c>
@@ -1686,14 +2002,18 @@
         <v>1</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>996373027</v>
+      </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>104</v>
       </c>
@@ -1707,14 +2027,18 @@
         <v>1</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="H31" s="2">
+        <v>929504065</v>
+      </c>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="2"/>
+      <c r="B32" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>81</v>
       </c>
@@ -1728,14 +2052,18 @@
         <v>1</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="2">
+        <v>931726319</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>105</v>
       </c>
@@ -1749,14 +2077,18 @@
         <v>1</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>106</v>
       </c>
@@ -1770,14 +2102,18 @@
         <v>1</v>
       </c>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="H34" s="2">
+        <v>943636508</v>
+      </c>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="2"/>
+      <c r="B35" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>107</v>
       </c>
@@ -1791,14 +2127,18 @@
         <v>1</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="H35" s="2">
+        <v>961554915</v>
+      </c>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>108</v>
       </c>
@@ -1812,14 +2152,18 @@
         <v>1</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2">
+        <v>995912562</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>100</v>
       </c>
@@ -1833,14 +2177,18 @@
         <v>1</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2">
+        <v>942135340</v>
+      </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="2"/>
+      <c r="B38" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>109</v>
       </c>
@@ -1854,14 +2202,18 @@
         <v>1</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2">
+        <v>922691351</v>
+      </c>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="2"/>
+      <c r="B39" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>110</v>
       </c>
@@ -1875,14 +2227,18 @@
         <v>1</v>
       </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2">
+        <v>939920334</v>
+      </c>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="2"/>
+      <c r="B40" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>111</v>
       </c>
@@ -1896,14 +2252,18 @@
         <v>1</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="H40" s="2">
+        <v>938595683</v>
+      </c>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="2"/>
+      <c r="B41" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>112</v>
       </c>
@@ -1917,14 +2277,18 @@
         <v>1</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2">
+        <v>977647029</v>
+      </c>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="2"/>
+      <c r="B42" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>96</v>
       </c>
@@ -1938,14 +2302,18 @@
         <v>1</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="H42" s="2">
+        <v>929795401</v>
+      </c>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="2"/>
+      <c r="B43" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>113</v>
       </c>
@@ -1959,14 +2327,18 @@
         <v>1</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="H43" s="2">
+        <v>937104149</v>
+      </c>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="2"/>
+      <c r="B44" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="C44" s="2" t="s">
         <v>114</v>
       </c>
@@ -1980,14 +2352,18 @@
         <v>1</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="H44" s="2">
+        <v>941038736</v>
+      </c>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="C45" s="2" t="s">
         <v>115</v>
       </c>
@@ -2001,14 +2377,18 @@
         <v>1</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="H45" s="2">
+        <v>920576900</v>
+      </c>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="2"/>
+      <c r="B46" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="C46" s="2" t="s">
         <v>104</v>
       </c>
@@ -2022,14 +2402,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2">
+        <v>910063004</v>
+      </c>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="C47" s="2" t="s">
         <v>116</v>
       </c>
@@ -2043,14 +2427,18 @@
         <v>1</v>
       </c>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2">
+        <v>951904915</v>
+      </c>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="2"/>
+      <c r="B48" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="C48" s="2" t="s">
         <v>117</v>
       </c>
@@ -2064,14 +2452,18 @@
         <v>1</v>
       </c>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2">
+        <v>929460596</v>
+      </c>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="C49" s="2" t="s">
         <v>88</v>
       </c>
@@ -2085,14 +2477,18 @@
         <v>1</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2">
+        <v>980916294</v>
+      </c>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="2"/>
+      <c r="B50" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="C50" s="2" t="s">
         <v>118</v>
       </c>
@@ -2106,14 +2502,18 @@
         <v>1</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2">
+        <v>938210474</v>
+      </c>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="C51" s="2" t="s">
         <v>119</v>
       </c>
@@ -2127,14 +2527,18 @@
         <v>1</v>
       </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2">
+        <v>986652989</v>
+      </c>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="2"/>
+      <c r="B52" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="C52" s="2" t="s">
         <v>119</v>
       </c>
@@ -2148,14 +2552,18 @@
         <v>1</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="H52" s="2">
+        <v>986652989</v>
+      </c>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="C53" s="2" t="s">
         <v>117</v>
       </c>
@@ -2169,14 +2577,18 @@
         <v>1</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2">
+        <v>954894403</v>
+      </c>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B54" s="2"/>
+      <c r="B54" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="C54" s="2" t="s">
         <v>120</v>
       </c>
@@ -2190,14 +2602,18 @@
         <v>1</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="H54" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="2"/>
+      <c r="B55" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="C55" s="2" t="s">
         <v>121</v>
       </c>
@@ -2211,14 +2627,18 @@
         <v>1</v>
       </c>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="H55" s="2">
+        <v>974287105</v>
+      </c>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="2"/>
+      <c r="B56" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="C56" s="2" t="s">
         <v>122</v>
       </c>
@@ -2232,14 +2652,18 @@
         <v>1</v>
       </c>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="H56" s="2">
+        <v>976555060</v>
+      </c>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="C57" s="2" t="s">
         <v>123</v>
       </c>
@@ -2253,14 +2677,18 @@
         <v>1</v>
       </c>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="H57" s="2">
+        <v>923860143</v>
+      </c>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="C58" s="2" t="s">
         <v>124</v>
       </c>
@@ -2274,14 +2702,18 @@
         <v>1</v>
       </c>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="H58" s="2">
+        <v>981721332</v>
+      </c>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="C59" s="2" t="s">
         <v>125</v>
       </c>
@@ -2295,14 +2727,18 @@
         <v>1</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="H59" s="2">
+        <v>968611560</v>
+      </c>
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="C60" s="2" t="s">
         <v>126</v>
       </c>
@@ -2316,14 +2752,18 @@
         <v>1</v>
       </c>
       <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2">
+        <v>979811464</v>
+      </c>
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="C61" s="2" t="s">
         <v>127</v>
       </c>
@@ -2337,14 +2777,18 @@
         <v>1</v>
       </c>
       <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="H61" s="2">
+        <v>947376911</v>
+      </c>
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="2"/>
+      <c r="B62" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="C62" s="2" t="s">
         <v>128</v>
       </c>
@@ -2358,14 +2802,18 @@
         <v>1</v>
       </c>
       <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="H62" s="2">
+        <v>921167754</v>
+      </c>
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="2"/>
+      <c r="B63" s="4" t="s">
+        <v>274</v>
+      </c>
       <c r="C63" s="2" t="s">
         <v>129</v>
       </c>
@@ -2379,14 +2827,18 @@
         <v>1</v>
       </c>
       <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2">
+        <v>976028122</v>
+      </c>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="2"/>
+      <c r="B64" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="C64" s="2" t="s">
         <v>130</v>
       </c>
@@ -2400,14 +2852,18 @@
         <v>1</v>
       </c>
       <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="H64" s="2">
+        <v>978110185</v>
+      </c>
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="2"/>
+      <c r="B65" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="C65" s="2" t="s">
         <v>131</v>
       </c>
@@ -2421,14 +2877,18 @@
         <v>1</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="H65" s="2">
+        <v>918048344</v>
+      </c>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="2"/>
+      <c r="B66" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="C66" s="2" t="s">
         <v>132</v>
       </c>
@@ -2442,14 +2902,18 @@
         <v>1</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="H66" s="2">
+        <v>931440896</v>
+      </c>
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="2"/>
+      <c r="B67" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="C67" s="2" t="s">
         <v>133</v>
       </c>
@@ -2463,14 +2927,18 @@
         <v>1</v>
       </c>
       <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="H67" s="2">
+        <v>925494158</v>
+      </c>
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="2"/>
+      <c r="B68" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="C68" s="2" t="s">
         <v>134</v>
       </c>
@@ -2484,7 +2952,9 @@
         <v>1</v>
       </c>
       <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="H68" s="2">
+        <v>900423052</v>
+      </c>
       <c r="I68" s="2"/>
     </row>
   </sheetData>

--- a/Plantillas/plantilla_socios.xlsx
+++ b/Plantillas/plantilla_socios.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sctock_camu\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41762A60-BB7E-4B4E-A4F3-1A7E5A955306}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553691AA-5636-4098-97FC-9CB01FD3BD1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$68</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
@@ -1240,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:R1048576"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2958,6 +2961,7 @@
       <c r="I68" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I68" xr:uid="{FE01B379-5120-4C48-B557-ACAD04822C99}"/>
   <dataValidations count="1">
     <dataValidation type="list" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Valor inválido" error="Solo se permite 0 o 1." sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"0,1"</formula1>
